--- a/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>transactiondate</t>
-  </si>
-  <si>
     <t>Disbursement</t>
   </si>
   <si>
@@ -101,6 +95,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +224,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,15 +551,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6">
         <v>42036</v>
@@ -568,22 +589,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -703,10 +724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="P1" sqref="P1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,52 +740,52 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="11">
@@ -789,9 +810,9 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -832,11 +853,11 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -875,11 +896,11 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -918,11 +939,11 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -961,11 +982,11 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1004,11 +1025,11 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1047,11 +1068,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1090,11 +1111,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1133,11 +1154,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1176,11 +1197,11 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1219,11 +1240,11 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1262,11 +1283,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1305,7 +1326,7 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>903.49</v>
       </c>
     </row>
@@ -1318,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,81 +1354,99 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="20">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21">
         <v>42036</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="20">
+        <v>785.8</v>
+      </c>
+      <c r="G2" s="20">
+        <v>101.92</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>887.72</v>
-      </c>
-      <c r="D2" s="3">
-        <v>785.8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>101.92</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>42005</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E3" s="23">
         <v>10000</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,6 +231,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>802.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>668.41</v>
       </c>
@@ -645,7 +645,7 @@
         <v>84.82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -685,36 +685,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,7 +715,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,48 +728,48 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1337,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1385,86 +1373,74 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="19">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>42036</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="19">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="19">
         <v>785.8</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>101.92</v>
       </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="19">
+        <v>61</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>42005</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>10000</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,10 +754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,12 +765,12 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -766,14 +808,15 @@
       <c r="M1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="11">
@@ -798,9 +841,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -838,14 +882,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -881,14 +926,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -924,14 +970,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -967,14 +1014,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1010,14 +1058,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1053,14 +1102,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1096,14 +1146,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1139,14 +1190,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1182,14 +1234,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1225,14 +1278,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1268,14 +1322,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1311,10 +1366,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>903.49</v>
       </c>
     </row>
@@ -1327,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/198-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -120,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -180,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -197,14 +192,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -212,16 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,26 +314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,7 +575,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,8 +595,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -667,7 +613,7 @@
         <v>802.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>668.41</v>
       </c>
@@ -687,7 +633,7 @@
         <v>84.82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -707,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -726,25 +672,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -756,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -770,62 +697,62 @@
     <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -851,13 +778,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3">
         <v>785.8</v>
       </c>
@@ -897,7 +824,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -941,7 +868,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -985,7 +912,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1029,7 +956,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1073,7 +1000,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1117,7 +1044,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1161,7 +1088,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1205,7 +1132,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1249,7 +1176,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1293,7 +1220,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1337,7 +1264,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1429,74 +1356,74 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="14">
         <v>63</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="15">
         <v>42036</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="14">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="14">
         <v>785.8</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>101.92</v>
       </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21">
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>61</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="17">
         <v>10000</v>
       </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
         <v>10000</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
